--- a/configs/Диагнозы и ограничения.xlsx
+++ b/configs/Диагнозы и ограничения.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\User\sveta\KTAnalyzer\Методические материалы\Трегубов ЭКГ для программистов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ИНКАРТ стажировка 22\DiagnosisHelper\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14878DE9-6ED9-4422-BCD1-204B69443B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="218">
   <si>
     <t>Диагноз</t>
   </si>
@@ -581,12 +582,6 @@
     <t>Миопотенциальное ингибирование</t>
   </si>
   <si>
-    <t>ПБПНПГ</t>
-  </si>
-  <si>
-    <t>Стимуляция предсердий</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -596,18 +591,9 @@
     <t>/</t>
   </si>
   <si>
-    <t>ПБЛНПГ</t>
-  </si>
-  <si>
-    <t>Фен.WPW</t>
-  </si>
-  <si>
     <t>Укорочен интервал PQ</t>
   </si>
   <si>
-    <t>Варианты стимуляции, включающие стимуляцию желудочков</t>
-  </si>
-  <si>
     <t>Высокое наложение электродов грудных отведений</t>
   </si>
   <si>
@@ -632,15 +618,6 @@
     <t>1 - Ритмы</t>
   </si>
   <si>
-    <t>Наджелудочковый</t>
-  </si>
-  <si>
-    <t>Синусовый</t>
-  </si>
-  <si>
-    <t>Желудочковый</t>
-  </si>
-  <si>
     <t>Стимулированный</t>
   </si>
   <si>
@@ -675,13 +652,40 @@
   </si>
   <si>
     <t xml:space="preserve">Элевация ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) Синусовый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(B) Наджелудочковый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`(C) Желудочковый </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(D) Стимуляция предсердий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Е) Р-управляемая стимуляция желудочков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(F) Варианты стимуляции, включающие стимуляцию желудочков </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(G) ПБПНПГ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(H) ПБЛНПГ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(I) Фен.WPW </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,8 +694,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,6 +762,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -872,12 +891,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1191,26 +1228,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="56.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="56.1328125" customWidth="1"/>
+    <col min="4" max="4" width="2.9296875" customWidth="1"/>
+    <col min="5" max="5" width="3.06640625" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" customWidth="1"/>
+    <col min="8" max="8" width="2.59765625" customWidth="1"/>
+    <col min="9" max="9" width="2.796875" customWidth="1"/>
+    <col min="10" max="10" width="2.9296875" customWidth="1"/>
+    <col min="11" max="11" width="2.86328125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1221,55 +1261,55 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -1278,21 +1318,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
       <c r="M3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1303,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1314,10 +1354,10 @@
       <c r="K4" s="12"/>
       <c r="L4" s="15"/>
       <c r="M4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1328,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1339,10 +1379,10 @@
       <c r="K5" s="12"/>
       <c r="L5" s="15"/>
       <c r="M5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1353,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1364,10 +1404,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="15"/>
       <c r="M6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1379,7 +1419,7 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1389,10 +1429,10 @@
       <c r="K7" s="12"/>
       <c r="L7" s="15"/>
       <c r="M7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -1404,7 +1444,7 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1414,10 +1454,10 @@
       <c r="K8" s="12"/>
       <c r="L8" s="15"/>
       <c r="M8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -1429,7 +1469,7 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1439,10 +1479,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="15"/>
       <c r="M9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -1454,7 +1494,7 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1464,10 +1504,10 @@
       <c r="K10" s="12"/>
       <c r="L10" s="15"/>
       <c r="M10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1479,7 +1519,7 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -1489,10 +1529,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="15"/>
       <c r="M11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -1504,7 +1544,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1514,10 +1554,10 @@
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
       <c r="M12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1569,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1539,10 +1579,10 @@
       <c r="K13" s="12"/>
       <c r="L13" s="15"/>
       <c r="M13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1554,7 +1594,7 @@
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1564,10 +1604,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="15"/>
       <c r="M14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1579,7 +1619,7 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -1589,10 +1629,10 @@
       <c r="K15" s="12"/>
       <c r="L15" s="15"/>
       <c r="M15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1604,7 +1644,7 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1614,10 +1654,10 @@
       <c r="K16" s="12"/>
       <c r="L16" s="15"/>
       <c r="M16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11">
         <v>1</v>
       </c>
@@ -1629,7 +1669,7 @@
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1639,10 +1679,10 @@
       <c r="K17" s="12"/>
       <c r="L17" s="15"/>
       <c r="M17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1654,7 +1694,7 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1664,10 +1704,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="15"/>
       <c r="M18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>1</v>
       </c>
@@ -1679,7 +1719,7 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1689,10 +1729,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="15"/>
       <c r="M19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="11">
         <v>1</v>
       </c>
@@ -1705,7 +1745,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1714,10 +1754,10 @@
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
       <c r="M20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="11">
         <v>1</v>
       </c>
@@ -1729,7 +1769,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -1739,10 +1779,10 @@
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
       <c r="M21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="11">
         <v>1</v>
       </c>
@@ -1755,7 +1795,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -1764,10 +1804,10 @@
       <c r="K22" s="12"/>
       <c r="L22" s="15"/>
       <c r="M22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="11">
         <v>1</v>
       </c>
@@ -1780,7 +1820,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -1789,10 +1829,10 @@
       <c r="K23" s="12"/>
       <c r="L23" s="15"/>
       <c r="M23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="11">
         <v>1</v>
       </c>
@@ -1805,7 +1845,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -1814,10 +1854,10 @@
       <c r="K24" s="12"/>
       <c r="L24" s="15"/>
       <c r="M24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="11">
         <v>1</v>
       </c>
@@ -1830,7 +1870,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -1839,10 +1879,10 @@
       <c r="K25" s="12"/>
       <c r="L25" s="15"/>
       <c r="M25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>1</v>
       </c>
@@ -1855,7 +1895,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -1864,10 +1904,10 @@
       <c r="K26" s="12"/>
       <c r="L26" s="15"/>
       <c r="M26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="11">
         <v>1</v>
       </c>
@@ -1880,7 +1920,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1889,10 +1929,10 @@
       <c r="K27" s="12"/>
       <c r="L27" s="15"/>
       <c r="M27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="11">
         <v>1</v>
       </c>
@@ -1905,7 +1945,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -1914,10 +1954,10 @@
       <c r="K28" s="12"/>
       <c r="L28" s="15"/>
       <c r="M28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="11">
         <v>1</v>
       </c>
@@ -1930,7 +1970,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -1939,10 +1979,10 @@
       <c r="K29" s="12"/>
       <c r="L29" s="15"/>
       <c r="M29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="11">
         <v>1</v>
       </c>
@@ -1956,7 +1996,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -1964,10 +2004,10 @@
       <c r="K30" s="12"/>
       <c r="L30" s="15"/>
       <c r="M30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="11">
         <v>1</v>
       </c>
@@ -1983,16 +2023,16 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="15"/>
       <c r="M31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="11">
         <v>1</v>
       </c>
@@ -2007,17 +2047,17 @@
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="15"/>
       <c r="M32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="11">
         <v>1</v>
       </c>
@@ -2033,16 +2073,16 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="15"/>
       <c r="M33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="19">
         <v>1</v>
       </c>
@@ -2058,18 +2098,18 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="23"/>
       <c r="M34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2078,22 +2118,22 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2104,22 +2144,22 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2130,22 +2170,22 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2153,25 +2193,25 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2182,19 +2222,19 @@
         <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2205,19 +2245,19 @@
         <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2228,19 +2268,19 @@
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2251,19 +2291,19 @@
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2274,19 +2314,19 @@
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2297,19 +2337,19 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2320,19 +2360,19 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2343,19 +2383,19 @@
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2366,30 +2406,30 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2398,22 +2438,22 @@
         <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2424,22 +2464,22 @@
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2450,25 +2490,25 @@
         <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2479,25 +2519,25 @@
         <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2508,25 +2548,25 @@
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2537,28 +2577,28 @@
         <v>50</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2569,28 +2609,28 @@
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>3</v>
       </c>
@@ -2601,25 +2641,25 @@
         <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M55" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2630,27 +2670,27 @@
         <v>54</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2659,22 +2699,22 @@
         <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>4</v>
       </c>
@@ -2685,22 +2725,22 @@
         <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>4</v>
       </c>
@@ -2711,22 +2751,22 @@
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M59" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2737,25 +2777,25 @@
         <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>4</v>
       </c>
@@ -2766,28 +2806,28 @@
         <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>4</v>
       </c>
@@ -2798,53 +2838,53 @@
         <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
         <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M63" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2853,25 +2893,25 @@
         <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M64" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -2882,25 +2922,25 @@
         <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -2911,28 +2951,28 @@
         <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -2943,28 +2983,28 @@
         <v>73</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -2975,25 +3015,25 @@
         <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3004,25 +3044,25 @@
         <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -3033,54 +3073,54 @@
         <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3091,25 +3131,25 @@
         <v>80</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M72" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>78</v>
       </c>
@@ -3120,25 +3160,25 @@
         <v>81</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>78</v>
       </c>
@@ -3149,25 +3189,25 @@
         <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>78</v>
       </c>
@@ -3178,25 +3218,25 @@
         <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
@@ -3207,25 +3247,25 @@
         <v>84</v>
       </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
@@ -3236,25 +3276,25 @@
         <v>85</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -3265,25 +3305,25 @@
         <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M78" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>78</v>
       </c>
@@ -3294,25 +3334,25 @@
         <v>87</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M79" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -3323,25 +3363,25 @@
         <v>88</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M80" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>78</v>
       </c>
@@ -3352,25 +3392,25 @@
         <v>89</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="4" t="s">
         <v>78</v>
       </c>
@@ -3381,25 +3421,25 @@
         <v>90</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>78</v>
       </c>
@@ -3410,25 +3450,25 @@
         <v>91</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="4" t="s">
         <v>78</v>
       </c>
@@ -3439,25 +3479,25 @@
         <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>78</v>
       </c>
@@ -3468,25 +3508,25 @@
         <v>93</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
@@ -3497,30 +3537,30 @@
         <v>94</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3529,10 +3569,10 @@
         <v>124</v>
       </c>
       <c r="M87" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3543,10 +3583,10 @@
         <v>95</v>
       </c>
       <c r="M88" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>6</v>
       </c>
@@ -3557,10 +3597,10 @@
         <v>125</v>
       </c>
       <c r="M89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>6</v>
       </c>
@@ -3571,10 +3611,10 @@
         <v>96</v>
       </c>
       <c r="M90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>6</v>
       </c>
@@ -3585,10 +3625,10 @@
         <v>126</v>
       </c>
       <c r="M91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>6</v>
       </c>
@@ -3599,10 +3639,10 @@
         <v>97</v>
       </c>
       <c r="M92" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3613,10 +3653,10 @@
         <v>98</v>
       </c>
       <c r="M93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>6</v>
       </c>
@@ -3627,10 +3667,10 @@
         <v>99</v>
       </c>
       <c r="M94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>6</v>
       </c>
@@ -3641,10 +3681,10 @@
         <v>100</v>
       </c>
       <c r="M95" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>6</v>
       </c>
@@ -3655,10 +3695,10 @@
         <v>101</v>
       </c>
       <c r="M96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>6</v>
       </c>
@@ -3669,10 +3709,10 @@
         <v>102</v>
       </c>
       <c r="M97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>6</v>
       </c>
@@ -3683,10 +3723,10 @@
         <v>103</v>
       </c>
       <c r="M98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>6</v>
       </c>
@@ -3697,10 +3737,10 @@
         <v>104</v>
       </c>
       <c r="M99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>6</v>
       </c>
@@ -3711,10 +3751,10 @@
         <v>105</v>
       </c>
       <c r="M100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>6</v>
       </c>
@@ -3725,10 +3765,10 @@
         <v>106</v>
       </c>
       <c r="M101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>6</v>
       </c>
@@ -3739,10 +3779,10 @@
         <v>107</v>
       </c>
       <c r="M102" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>6</v>
       </c>
@@ -3753,10 +3793,10 @@
         <v>108</v>
       </c>
       <c r="M103" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>6</v>
       </c>
@@ -3767,10 +3807,10 @@
         <v>109</v>
       </c>
       <c r="M104" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>6</v>
       </c>
@@ -3781,10 +3821,10 @@
         <v>110</v>
       </c>
       <c r="M105" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>6</v>
       </c>
@@ -3795,10 +3835,10 @@
         <v>111</v>
       </c>
       <c r="M106" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>6</v>
       </c>
@@ -3809,10 +3849,10 @@
         <v>112</v>
       </c>
       <c r="M107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>6</v>
       </c>
@@ -3823,10 +3863,10 @@
         <v>113</v>
       </c>
       <c r="M108" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>6</v>
       </c>
@@ -3837,10 +3877,10 @@
         <v>114</v>
       </c>
       <c r="M109" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>6</v>
       </c>
@@ -3851,10 +3891,10 @@
         <v>115</v>
       </c>
       <c r="M110" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>6</v>
       </c>
@@ -3865,10 +3905,10 @@
         <v>116</v>
       </c>
       <c r="M111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>6</v>
       </c>
@@ -3879,10 +3919,10 @@
         <v>117</v>
       </c>
       <c r="M112" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>6</v>
       </c>
@@ -3893,10 +3933,10 @@
         <v>118</v>
       </c>
       <c r="M113" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>6</v>
       </c>
@@ -3907,12 +3947,12 @@
         <v>119</v>
       </c>
       <c r="M114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3921,12 +3961,12 @@
         <v>56</v>
       </c>
       <c r="M115" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -3935,12 +3975,12 @@
         <v>61</v>
       </c>
       <c r="M116" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B117" s="4">
         <v>3</v>
@@ -3949,12 +3989,12 @@
         <v>59</v>
       </c>
       <c r="M117" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B118" s="4">
         <v>4</v>
@@ -3963,12 +4003,12 @@
         <v>58</v>
       </c>
       <c r="M118" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B119" s="4">
         <v>5</v>
@@ -3977,12 +4017,12 @@
         <v>62</v>
       </c>
       <c r="M119" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B120" s="4">
         <v>6</v>
@@ -3991,12 +4031,12 @@
         <v>63</v>
       </c>
       <c r="M120" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B121" s="4">
         <v>7</v>
@@ -4005,12 +4045,12 @@
         <v>57</v>
       </c>
       <c r="M121" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B122" s="4">
         <v>8</v>
@@ -4019,12 +4059,12 @@
         <v>60</v>
       </c>
       <c r="M122" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B123">
         <v>9</v>
@@ -4033,18 +4073,22 @@
         <v>127</v>
       </c>
       <c r="H123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M123" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B124" s="4">
         <v>10</v>
@@ -4053,21 +4097,21 @@
         <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M124" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B125" s="4">
         <v>11</v>
@@ -4076,24 +4120,24 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M125" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B126" s="4">
         <v>12</v>
@@ -4102,12 +4146,12 @@
         <v>130</v>
       </c>
       <c r="M126" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B127" s="4">
         <v>13</v>
@@ -4116,27 +4160,27 @@
         <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M127" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B128" s="4">
         <v>14</v>
@@ -4145,24 +4189,24 @@
         <v>132</v>
       </c>
       <c r="F128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M128" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B129" s="4">
         <v>15</v>
@@ -4171,27 +4215,27 @@
         <v>133</v>
       </c>
       <c r="F129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M129" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B130" s="4">
         <v>16</v>
@@ -4200,12 +4244,12 @@
         <v>134</v>
       </c>
       <c r="M130" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B131" s="4">
         <v>17</v>
@@ -4214,30 +4258,30 @@
         <v>135</v>
       </c>
       <c r="F131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B132" s="4">
         <v>18</v>
@@ -4246,62 +4290,62 @@
         <v>136</v>
       </c>
       <c r="F132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M132" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B133" s="4">
         <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M133" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B134" s="4">
         <v>20</v>
@@ -4310,36 +4354,36 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M134" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B135">
         <v>21</v>
@@ -4348,12 +4392,12 @@
         <v>140</v>
       </c>
       <c r="M135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4362,34 +4406,34 @@
         <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>8</v>
       </c>
@@ -4400,34 +4444,34 @@
         <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M137" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>8</v>
       </c>
@@ -4438,25 +4482,25 @@
         <v>141</v>
       </c>
       <c r="F138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="4">
         <v>8</v>
       </c>
@@ -4467,25 +4511,25 @@
         <v>142</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="4">
         <v>8</v>
       </c>
@@ -4496,25 +4540,25 @@
         <v>143</v>
       </c>
       <c r="F140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M140" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="4">
         <v>8</v>
       </c>
@@ -4525,25 +4569,25 @@
         <v>144</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M141" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="4">
         <v>8</v>
       </c>
@@ -4554,25 +4598,25 @@
         <v>145</v>
       </c>
       <c r="F142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M142" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="4">
         <v>8</v>
       </c>
@@ -4583,25 +4627,25 @@
         <v>146</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="4">
         <v>8</v>
       </c>
@@ -4612,25 +4656,25 @@
         <v>147</v>
       </c>
       <c r="F144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="4">
         <v>8</v>
       </c>
@@ -4641,25 +4685,25 @@
         <v>148</v>
       </c>
       <c r="F145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M145" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="4">
         <v>8</v>
       </c>
@@ -4670,28 +4714,28 @@
         <v>149</v>
       </c>
       <c r="F146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>8</v>
       </c>
@@ -4702,25 +4746,25 @@
         <v>150</v>
       </c>
       <c r="F147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M147" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="4">
         <v>8</v>
       </c>
@@ -4731,25 +4775,25 @@
         <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="4">
         <v>8</v>
       </c>
@@ -4760,25 +4804,25 @@
         <v>152</v>
       </c>
       <c r="F149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="4">
         <v>8</v>
       </c>
@@ -4789,25 +4833,25 @@
         <v>153</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="4">
         <v>8</v>
       </c>
@@ -4818,25 +4862,25 @@
         <v>154</v>
       </c>
       <c r="F151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="4">
         <v>8</v>
       </c>
@@ -4847,25 +4891,25 @@
         <v>155</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M152" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -4876,28 +4920,28 @@
         <v>156</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="4">
         <v>8</v>
       </c>
@@ -4908,25 +4952,25 @@
         <v>157</v>
       </c>
       <c r="F154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="4">
         <v>8</v>
       </c>
@@ -4937,25 +4981,25 @@
         <v>158</v>
       </c>
       <c r="F155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -4966,28 +5010,28 @@
         <v>159</v>
       </c>
       <c r="F156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="4">
         <v>8</v>
       </c>
@@ -4998,25 +5042,25 @@
         <v>160</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="4">
         <v>8</v>
       </c>
@@ -5027,25 +5071,25 @@
         <v>161</v>
       </c>
       <c r="F158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="4">
         <v>8</v>
       </c>
@@ -5056,25 +5100,25 @@
         <v>162</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="4">
         <v>8</v>
       </c>
@@ -5085,25 +5129,25 @@
         <v>163</v>
       </c>
       <c r="F160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="4">
         <v>8</v>
       </c>
@@ -5114,25 +5158,25 @@
         <v>164</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="4">
         <v>8</v>
       </c>
@@ -5143,25 +5187,25 @@
         <v>165</v>
       </c>
       <c r="F162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="4">
         <v>8</v>
       </c>
@@ -5172,25 +5216,25 @@
         <v>166</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="4">
         <v>8</v>
       </c>
@@ -5201,25 +5245,25 @@
         <v>167</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="4">
         <v>8</v>
       </c>
@@ -5230,25 +5274,25 @@
         <v>168</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M165" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="4">
         <v>8</v>
       </c>
@@ -5259,25 +5303,25 @@
         <v>169</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="4">
         <v>8</v>
       </c>
@@ -5288,25 +5332,25 @@
         <v>170</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A168" s="4">
         <v>8</v>
       </c>
@@ -5317,25 +5361,25 @@
         <v>171</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>8</v>
       </c>
@@ -5346,25 +5390,25 @@
         <v>172</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>8</v>
       </c>
@@ -5375,30 +5419,30 @@
         <v>173</v>
       </c>
       <c r="F170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5407,19 +5451,19 @@
         <v>174</v>
       </c>
       <c r="D171" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E171" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>9</v>
       </c>
@@ -5430,22 +5474,22 @@
         <v>175</v>
       </c>
       <c r="D172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>9</v>
       </c>
@@ -5456,22 +5500,22 @@
         <v>176</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>9</v>
       </c>
@@ -5482,19 +5526,19 @@
         <v>123</v>
       </c>
       <c r="D174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>9</v>
       </c>
@@ -5505,25 +5549,25 @@
         <v>177</v>
       </c>
       <c r="D175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>9</v>
       </c>
@@ -5534,19 +5578,19 @@
         <v>178</v>
       </c>
       <c r="D176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>9</v>
       </c>
@@ -5557,19 +5601,19 @@
         <v>179</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E177" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F177" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5580,22 +5624,22 @@
         <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M178" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5606,22 +5650,22 @@
         <v>181</v>
       </c>
       <c r="D179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M179" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>9</v>
       </c>
@@ -5632,22 +5676,22 @@
         <v>182</v>
       </c>
       <c r="D180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M180" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>9</v>
       </c>
@@ -5658,22 +5702,22 @@
         <v>183</v>
       </c>
       <c r="D181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M181" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>9</v>
       </c>
@@ -5684,19 +5728,19 @@
         <v>184</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E182" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F182" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M182" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>9</v>
       </c>
@@ -5704,22 +5748,22 @@
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M183" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>9</v>
       </c>
@@ -5727,25 +5771,25 @@
         <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M184" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>9</v>
       </c>
@@ -5756,22 +5800,22 @@
         <v>120</v>
       </c>
       <c r="D185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M185" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>9</v>
       </c>
@@ -5782,22 +5826,22 @@
         <v>121</v>
       </c>
       <c r="D186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M186" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>9</v>
       </c>
@@ -5808,24 +5852,24 @@
         <v>122</v>
       </c>
       <c r="D187" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E187" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F187" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/configs/Диагнозы и ограничения.xlsx
+++ b/configs/Диагнозы и ограничения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ИНКАРТ стажировка 22\DiagnosisHelper\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14878DE9-6ED9-4422-BCD1-204B69443B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B9222-DD80-4BA2-A277-41F4CFAF50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,9 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,6 +912,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1232,22 +1232,14 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O50" sqref="O50"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="56.1328125" customWidth="1"/>
-    <col min="4" max="4" width="2.9296875" customWidth="1"/>
-    <col min="5" max="5" width="3.06640625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="2.73046875" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" customWidth="1"/>
-    <col min="9" max="9" width="2.796875" customWidth="1"/>
-    <col min="10" max="10" width="2.9296875" customWidth="1"/>
-    <col min="11" max="11" width="2.86328125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="4" max="12" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -1295,14 +1287,14 @@
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="27"/>
@@ -1322,12 +1314,12 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
       <c r="M3" t="s">
         <v>185</v>
       </c>
@@ -4081,10 +4073,10 @@
       <c r="M123" t="s">
         <v>185</v>
       </c>
-      <c r="N123" s="35"/>
-      <c r="O123" s="35"/>
-      <c r="P123" s="35"/>
-      <c r="Q123" s="35"/>
+      <c r="N123" s="34"/>
+      <c r="O123" s="34"/>
+      <c r="P123" s="34"/>
+      <c r="Q123" s="34"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
